--- a/PATAYON - FA1.xlsx
+++ b/PATAYON - FA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E631F-7955-4533-8BA4-1E9D3FB91418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49454F94-4AE2-4B8A-98E7-861B8ADBA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DFF12E56-4F52-4EA2-B22B-C5E2878245E9}"/>
   </bookViews>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -218,7 +218,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,26 +1007,36 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9247594050743655E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.87764129483814524"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$33</c:f>
+              <c:f>Sheet1!$I$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Class Midpoints</c:v>
+                  <c:v>Number of students</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1036,9 +1045,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$H$34:$H$42</c:f>
               <c:numCache>
@@ -1073,41 +1094,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B338-433D-8855-9503A8184AB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of students</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$I$34:$I$42</c:f>
               <c:numCache>
@@ -1142,11 +1130,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B338-433D-8855-9503A8184AB1}"/>
+              <c16:uniqueId val="{00000000-B284-4994-8C67-8D075364782F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1158,17 +1146,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="621407664"/>
-        <c:axId val="621388464"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="621407664"/>
+        <c:axId val="1063187599"/>
+        <c:axId val="860942687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1063187599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1177,8 +1179,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1205,15 +1207,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621388464"/>
+        <c:crossAx val="860942687"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="621388464"/>
+        <c:axId val="860942687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,8 +1238,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1264,9 +1269,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621407664"/>
+        <c:crossAx val="1063187599"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1276,39 +1281,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3356,7 +3330,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3383,8 +3357,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3464,11 +3438,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3479,11 +3448,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3495,7 +3459,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3515,9 +3479,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3530,10 +3491,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3573,22 +3534,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3693,8 +3655,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3826,19 +3788,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3852,6 +3815,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4026,22 +4000,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>159871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>49893</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>24493</xdr:rowOff>
+      <xdr:colOff>141942</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E025CA89-8E61-F6B3-3765-2C00C414DF1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1491F9-6ECA-FA3C-6DDC-4CC8EE9B2C92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4392,10 +4366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E644843A-3662-492B-A9E2-3D2607C5EC3B}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4529,7 +4503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -4538,7 +4512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4547,7 +4521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -4556,16 +4530,14 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -4573,19 +4545,15 @@
       <c r="C21" s="6">
         <v>0.29499999999999998</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -4593,19 +4561,15 @@
       <c r="C23" s="5">
         <v>0.19</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -4613,22 +4577,8 @@
       <c r="C25" s="5">
         <v>0.78</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -4636,22 +4586,20 @@
         <v>19</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
@@ -4659,37 +4607,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H34" s="2">
         <v>349.5</v>
       </c>
       <c r="I34" s="2">
         <v>14</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H35" s="2">
         <v>449.5</v>
       </c>
       <c r="I35" s="2">
         <v>46</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H36" s="2">
         <v>549.5</v>
       </c>
       <c r="I36" s="2">
         <v>58</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H37" s="2">
         <v>649.5</v>
       </c>
@@ -4697,7 +4639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H38" s="2">
         <v>749.5</v>
       </c>
@@ -4705,7 +4647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H39" s="2">
         <v>849.5</v>
       </c>
@@ -4713,7 +4655,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H40" s="2">
         <v>949.5</v>
       </c>
@@ -4721,7 +4663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H41" s="2">
         <v>1049.5</v>
       </c>
@@ -4729,33 +4671,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H42" s="2">
         <v>1149.5</v>
       </c>
       <c r="I42" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">

--- a/PATAYON - FA1.xlsx
+++ b/PATAYON - FA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spike\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49454F94-4AE2-4B8A-98E7-861B8ADBA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4863C5D-E63F-4BAC-889D-65806F17942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DFF12E56-4F52-4EA2-B22B-C5E2878245E9}"/>
   </bookViews>
@@ -436,7 +436,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="1690067583"/>
         <c:axId val="1690067103"/>
@@ -1325,321 +1325,376 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Histogram</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Histogram</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{35262BA7-EBDE-43F3-9F3C-6EF74E0007D9}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>Number of Students</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels>
-            <cx:txPr>
-              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="900" b="0" i="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-PH">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
-            </cx:txPr>
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{05A93925-B14E-4F87-9940-30F9CB5DC67A}">
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.600000024"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Axis Title</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="900" b="0" i="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="595959"/>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-PH">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </a:rPr>
-                <a:t>Axis Title</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300-399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500-599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600-699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700-799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800-899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900-999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000-1099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100-1199</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51AB-480B-B049-6A7356549D5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-34"/>
+        <c:axId val="1810595376"/>
+        <c:axId val="1810616016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1810595376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PH">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
-        </cx:txPr>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Axis Title</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-PH" sz="900" b="0" i="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="595959"/>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>Axis Title</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        </c:txPr>
+        <c:crossAx val="1810616016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1810616016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PH">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
-        </cx:txPr>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Axis Title</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="900" b="0" i="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="595959"/>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-PH">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </a:rPr>
-                <a:t>Axis Title</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PH">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:noFill/>
+        </c:txPr>
+        <c:crossAx val="1810595376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
-  </cx:spPr>
-</cx:chartSpace>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,514 +1858,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2813,7 +2360,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3329,7 +2876,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3845,86 +3392,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>454890</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>5361</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Chart 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D74713-7036-D7A4-5BC0-8CA3DED7FEE2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="5551632"/>
-              <a:ext cx="5903190" cy="2740479"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-PH" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3955,7 +3927,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3991,7 +3963,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4016,6 +3988,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1491F9-6ECA-FA3C-6DDC-4CC8EE9B2C92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101598</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245135C2-6E44-66E5-260F-CF494AB92177}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E644843A-3662-492B-A9E2-3D2607C5EC3B}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
